--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -22,9 +22,6 @@
     <t>Component</t>
   </si>
   <si>
-    <t>STM32 Bluepill</t>
-  </si>
-  <si>
     <t>HC05 Bluetooth</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>GRAND TOTAL (₦)</t>
+  </si>
+  <si>
+    <t>STM32 Blue Pill</t>
   </si>
 </sst>
 </file>
@@ -175,10 +175,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -509,13 +509,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -523,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -540,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -557,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -574,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -608,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -625,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -642,7 +642,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -693,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -710,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -727,13 +727,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1">
         <v>900</v>
@@ -744,13 +744,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
         <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1">
         <v>900</v>
@@ -761,13 +761,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1">
         <v>900</v>
@@ -778,7 +778,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -795,7 +795,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -812,7 +812,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
@@ -880,7 +880,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -897,7 +897,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
@@ -914,7 +914,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -931,7 +931,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -948,7 +948,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -965,7 +965,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -982,7 +982,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
@@ -999,19 +999,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="1">
         <v>2000</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="1">
         <f>SUM(E2:E31)</f>
         <v>40540</v>
